--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dhh</t>
+  </si>
+  <si>
+    <t>Boc</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dhh</t>
-  </si>
-  <si>
-    <t>Boc</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H2">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I2">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J2">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N2">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O2">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P2">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q2">
-        <v>12.67570233444725</v>
+        <v>9.217069026899999</v>
       </c>
       <c r="R2">
-        <v>50.70280933778901</v>
+        <v>36.8682761076</v>
       </c>
       <c r="S2">
-        <v>0.04952913451497299</v>
+        <v>0.08600987621987634</v>
       </c>
       <c r="T2">
-        <v>0.03180818687881476</v>
+        <v>0.06194863101396287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H3">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I3">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J3">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.483593</v>
       </c>
       <c r="O3">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P3">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q3">
-        <v>67.42836244211783</v>
+        <v>43.34323815586</v>
       </c>
       <c r="R3">
-        <v>404.570174652707</v>
+        <v>260.05942893516</v>
       </c>
       <c r="S3">
-        <v>0.2634700898934954</v>
+        <v>0.4044611728385818</v>
       </c>
       <c r="T3">
-        <v>0.2538053391719456</v>
+        <v>0.4369698642211577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H4">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I4">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J4">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N4">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O4">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P4">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q4">
-        <v>30.74816142969726</v>
+        <v>0.12640770404</v>
       </c>
       <c r="R4">
-        <v>122.992645718789</v>
+        <v>0.75844622424</v>
       </c>
       <c r="S4">
-        <v>0.1201455969347666</v>
+        <v>0.001179584415174536</v>
       </c>
       <c r="T4">
-        <v>0.07715890126875748</v>
+        <v>0.001274393875977611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H5">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I5">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J5">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N5">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O5">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P5">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q5">
-        <v>11.710709533544</v>
+        <v>12.01349287395</v>
       </c>
       <c r="R5">
-        <v>70.264257201264</v>
+        <v>48.0539714958</v>
       </c>
       <c r="S5">
-        <v>0.04575851439619423</v>
+        <v>0.1121049470326394</v>
       </c>
       <c r="T5">
-        <v>0.04407997610288573</v>
+        <v>0.08074361112683411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H6">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I6">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J6">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N6">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O6">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P6">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q6">
-        <v>0.2683876149138334</v>
+        <v>0.00775064248</v>
       </c>
       <c r="R6">
-        <v>1.610325689483</v>
+        <v>0.04650385488</v>
       </c>
       <c r="S6">
-        <v>0.00104869978250398</v>
+        <v>7.23257901599469E-05</v>
       </c>
       <c r="T6">
-        <v>0.001010230816316047</v>
+        <v>7.813899782784095E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>0.450645</v>
       </c>
       <c r="I7">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J7">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N7">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O7">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P7">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q7">
-        <v>0.3434148484325</v>
+        <v>0.3884732647249999</v>
       </c>
       <c r="R7">
-        <v>2.060489090595</v>
+        <v>2.33083958835</v>
       </c>
       <c r="S7">
-        <v>0.001341861758320792</v>
+        <v>0.003625071844011808</v>
       </c>
       <c r="T7">
-        <v>0.001292638867774873</v>
+        <v>0.003916438110369536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +921,10 @@
         <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J8">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>36.483593</v>
       </c>
       <c r="O8">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P8">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q8">
         <v>1.826794307498333</v>
@@ -951,10 +951,10 @@
         <v>16.441148767485</v>
       </c>
       <c r="S8">
-        <v>0.007138029799057868</v>
+        <v>0.01704688896313405</v>
       </c>
       <c r="T8">
-        <v>0.01031428315962744</v>
+        <v>0.02762555687361375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J9">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N9">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O9">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P9">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q9">
-        <v>0.8330406409325</v>
+        <v>0.005327725476666666</v>
       </c>
       <c r="R9">
-        <v>4.998243845595</v>
+        <v>0.04794952928999999</v>
       </c>
       <c r="S9">
-        <v>0.003255029257752314</v>
+        <v>4.971613074006691E-05</v>
       </c>
       <c r="T9">
-        <v>0.003135626533973519</v>
+        <v>8.056812009897846E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J10">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N10">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O10">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P10">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q10">
-        <v>0.3172709040799999</v>
+        <v>0.5063345824875</v>
       </c>
       <c r="R10">
-        <v>2.855438136719999</v>
+        <v>3.038007494925</v>
       </c>
       <c r="S10">
-        <v>0.001239706713777975</v>
+        <v>0.00472490491700699</v>
       </c>
       <c r="T10">
-        <v>0.001791346693801267</v>
+        <v>0.005104670605468505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J11">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N11">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O11">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P11">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q11">
-        <v>0.007271257218333334</v>
+        <v>0.0003266675533333333</v>
       </c>
       <c r="R11">
-        <v>0.065441314965</v>
+        <v>0.00294000798</v>
       </c>
       <c r="S11">
-        <v>2.841176507285855E-05</v>
+        <v>3.048326506533679E-06</v>
       </c>
       <c r="T11">
-        <v>4.105432427095701E-05</v>
+        <v>4.940005033042006E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,19 +1160,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H12">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I12">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J12">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N12">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O12">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P12">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q12">
-        <v>0.5181807676818334</v>
+        <v>4.84862943005</v>
       </c>
       <c r="R12">
-        <v>3.109084606091</v>
+        <v>19.3945177202</v>
       </c>
       <c r="S12">
-        <v>0.002024743423947299</v>
+        <v>0.04524540457465911</v>
       </c>
       <c r="T12">
-        <v>0.001950470702988885</v>
+        <v>0.03258801193839289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,19 +1222,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H13">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I13">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J13">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>36.483593</v>
       </c>
       <c r="O13">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P13">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q13">
-        <v>2.756461116859223</v>
+        <v>22.80066466930333</v>
       </c>
       <c r="R13">
-        <v>24.808150051733</v>
+        <v>136.80398801582</v>
       </c>
       <c r="S13">
-        <v>0.01077061687313333</v>
+        <v>0.212766372934202</v>
       </c>
       <c r="T13">
-        <v>0.01556328501851041</v>
+        <v>0.2298675357127327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H14">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I14">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J14">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N14">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O14">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P14">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q14">
-        <v>1.256980124181833</v>
+        <v>0.06649663924666666</v>
       </c>
       <c r="R14">
-        <v>7.541880745091001</v>
+        <v>0.39897983548</v>
       </c>
       <c r="S14">
-        <v>0.004911533579016025</v>
+        <v>0.0006205191361756766</v>
       </c>
       <c r="T14">
-        <v>0.004731366077950155</v>
+        <v>0.0006703935529295643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H15">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I15">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J15">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N15">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O15">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P15">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q15">
-        <v>0.4787320099573333</v>
+        <v>6.319685242275</v>
       </c>
       <c r="R15">
-        <v>4.308588089616</v>
+        <v>25.2787409691</v>
       </c>
       <c r="S15">
-        <v>0.001870601051695817</v>
+        <v>0.05897268902405815</v>
       </c>
       <c r="T15">
-        <v>0.002702973995490197</v>
+        <v>0.04247509138268365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H16">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I16">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J16">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N16">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O16">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P16">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q16">
-        <v>0.01097164454188889</v>
+        <v>0.004077217293333333</v>
       </c>
       <c r="R16">
-        <v>0.09874480087700002</v>
+        <v>0.02446330376</v>
       </c>
       <c r="S16">
-        <v>4.287068629632512E-05</v>
+        <v>3.804690555074259E-05</v>
       </c>
       <c r="T16">
-        <v>6.194712128635538E-05</v>
+        <v>4.110493730674684E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,19 +1470,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H17">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I17">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J17">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N17">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O17">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P17">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q17">
-        <v>4.398631766665</v>
+        <v>0.6733036606333332</v>
       </c>
       <c r="R17">
-        <v>17.59452706666</v>
+        <v>4.0398219638</v>
       </c>
       <c r="S17">
-        <v>0.01718724680532539</v>
+        <v>0.006282991300211614</v>
       </c>
       <c r="T17">
-        <v>0.01103785001837317</v>
+        <v>0.006787988661774191</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H18">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I18">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J18">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>36.483593</v>
       </c>
       <c r="O18">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P18">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q18">
-        <v>23.39850914659667</v>
+        <v>3.166208349842222</v>
       </c>
       <c r="R18">
-        <v>140.39105487958</v>
+        <v>28.49587514858</v>
       </c>
       <c r="S18">
-        <v>0.09142751039697308</v>
+        <v>0.02954574685960232</v>
       </c>
       <c r="T18">
-        <v>0.08807371757200447</v>
+        <v>0.04788074304986133</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H19">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I19">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J19">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N19">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O19">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P19">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q19">
-        <v>10.670007551665</v>
+        <v>0.009234038457777777</v>
       </c>
       <c r="R19">
-        <v>42.68003020666001</v>
+        <v>0.08310634611999999</v>
       </c>
       <c r="S19">
-        <v>0.04169206765498243</v>
+        <v>8.616822793071412E-05</v>
       </c>
       <c r="T19">
-        <v>0.02677513129031086</v>
+        <v>0.0001396410386989939</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H20">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I20">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J20">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N20">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O20">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P20">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q20">
-        <v>4.06376685136</v>
+        <v>0.87758144215</v>
       </c>
       <c r="R20">
-        <v>24.38260110816</v>
+        <v>5.265488652899999</v>
       </c>
       <c r="S20">
-        <v>0.01587879311992969</v>
+        <v>0.008189227073367018</v>
       </c>
       <c r="T20">
-        <v>0.0152963187399148</v>
+        <v>0.008847438722513798</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H21">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I21">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J21">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N21">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O21">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P21">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q21">
-        <v>0.09313395483666669</v>
+        <v>0.0005661817155555556</v>
       </c>
       <c r="R21">
-        <v>0.5588037290200001</v>
+        <v>0.00509563544</v>
       </c>
       <c r="S21">
-        <v>0.0003639123147031391</v>
+        <v>5.28337361158605E-06</v>
       </c>
       <c r="T21">
-        <v>0.0003505630885821408</v>
+        <v>8.562039590160303E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H22">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I22">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J22">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N22">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O22">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P22">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q22">
-        <v>7.368775272243501</v>
+        <v>0.136921858675</v>
       </c>
       <c r="R22">
-        <v>44.21265163346101</v>
+        <v>0.82153115205</v>
       </c>
       <c r="S22">
-        <v>0.02879280784921258</v>
+        <v>0.001277698157848452</v>
       </c>
       <c r="T22">
-        <v>0.02773661467545001</v>
+        <v>0.001380393540948075</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H23">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I23">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J23">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>36.483593</v>
       </c>
       <c r="O23">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P23">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q23">
-        <v>39.19817905956034</v>
+        <v>0.6438746104616666</v>
       </c>
       <c r="R23">
-        <v>352.7836115360431</v>
+        <v>5.794871494155</v>
       </c>
       <c r="S23">
-        <v>0.1531632592938782</v>
+        <v>0.006008371575096579</v>
       </c>
       <c r="T23">
-        <v>0.2213172640743259</v>
+        <v>0.009736944437462838</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H24">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I24">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J24">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N24">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O24">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P24">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q24">
-        <v>17.8748510837435</v>
+        <v>0.001877817963333333</v>
       </c>
       <c r="R24">
-        <v>107.249106502461</v>
+        <v>0.01690036167</v>
       </c>
       <c r="S24">
-        <v>0.06984432739130342</v>
+        <v>1.75230206173341E-05</v>
       </c>
       <c r="T24">
-        <v>0.06728226042641897</v>
+        <v>2.839715819751966E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H25">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I25">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J25">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N25">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O25">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P25">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q25">
-        <v>6.807795304304</v>
+        <v>0.1784634322125</v>
       </c>
       <c r="R25">
-        <v>61.270157738736</v>
+        <v>1.070780593275</v>
       </c>
       <c r="S25">
-        <v>0.0266008305086929</v>
+        <v>0.001665346941589955</v>
       </c>
       <c r="T25">
-        <v>0.03843756692976095</v>
+        <v>0.00179919971511853</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H26">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I26">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J26">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,338 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N26">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O26">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P26">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q26">
-        <v>0.1560219676963334</v>
+        <v>0.0001151377266666667</v>
       </c>
       <c r="R26">
-        <v>1.404197709267</v>
+        <v>0.00103623954</v>
       </c>
       <c r="S26">
-        <v>0.000609641408533395</v>
+        <v>1.074417647295048E-06</v>
       </c>
       <c r="T26">
-        <v>0.0008809173245924926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H27">
-        <v>1.450882</v>
-      </c>
-      <c r="I27">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J27">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.2861555</v>
-      </c>
-      <c r="N27">
-        <v>4.572311</v>
-      </c>
-      <c r="O27">
-        <v>0.1031960088701604</v>
-      </c>
-      <c r="P27">
-        <v>0.07798749924269259</v>
-      </c>
-      <c r="Q27">
-        <v>1.105647288050333</v>
-      </c>
-      <c r="R27">
-        <v>6.633883728302</v>
-      </c>
-      <c r="S27">
-        <v>0.004320214518381402</v>
-      </c>
-      <c r="T27">
-        <v>0.004161738099290891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H28">
-        <v>1.450882</v>
-      </c>
-      <c r="I28">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J28">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>12.16119766666667</v>
-      </c>
-      <c r="N28">
-        <v>36.483593</v>
-      </c>
-      <c r="O28">
-        <v>0.5489508750743805</v>
-      </c>
-      <c r="P28">
-        <v>0.6222814199336407</v>
-      </c>
-      <c r="Q28">
-        <v>5.881487597669556</v>
-      </c>
-      <c r="R28">
-        <v>52.933388379026</v>
-      </c>
-      <c r="S28">
-        <v>0.0229813688178426</v>
-      </c>
-      <c r="T28">
-        <v>0.03320753093722681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H29">
-        <v>1.450882</v>
-      </c>
-      <c r="I29">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J29">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5.545655500000001</v>
-      </c>
-      <c r="N29">
-        <v>11.091311</v>
-      </c>
-      <c r="O29">
-        <v>0.2503283412562506</v>
-      </c>
-      <c r="P29">
-        <v>0.1891786469059012</v>
-      </c>
-      <c r="Q29">
-        <v>2.682030581050334</v>
-      </c>
-      <c r="R29">
-        <v>16.092183486302</v>
-      </c>
-      <c r="S29">
-        <v>0.01047978643842979</v>
-      </c>
-      <c r="T29">
-        <v>0.0100953613084902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H30">
-        <v>1.450882</v>
-      </c>
-      <c r="I30">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J30">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.112112</v>
-      </c>
-      <c r="N30">
-        <v>6.336335999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.09533976524640267</v>
-      </c>
-      <c r="P30">
-        <v>0.1080755440741992</v>
-      </c>
-      <c r="Q30">
-        <v>1.021475094261333</v>
-      </c>
-      <c r="R30">
-        <v>9.193275848351998</v>
-      </c>
-      <c r="S30">
-        <v>0.003991319456112054</v>
-      </c>
-      <c r="T30">
-        <v>0.005767361612346238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H31">
-        <v>1.450882</v>
-      </c>
-      <c r="I31">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J31">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.04840566666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.145217</v>
-      </c>
-      <c r="O31">
-        <v>0.002185009552805732</v>
-      </c>
-      <c r="P31">
-        <v>0.002476889843566216</v>
-      </c>
-      <c r="Q31">
-        <v>0.02341030348822223</v>
-      </c>
-      <c r="R31">
-        <v>0.210692731394</v>
-      </c>
-      <c r="S31">
-        <v>9.147359569603382E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001321771685182231</v>
+        <v>1.741161445091429E-06</v>
       </c>
     </row>
   </sheetData>
